--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EB253855-A127-4CC8-ADFF-13045323156C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5DA7EEE3-1B1B-4AB7-8BD6-5FA6C9A4C7A0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="10740" windowWidth="18915" xWindow="6825" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="1635"/>
+    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Result</t>
   </si>
@@ -59,34 +59,61 @@
     <t>Existing Liability w/Notice Number</t>
   </si>
   <si>
+    <t>Quarterly Estimated Tax</t>
+  </si>
+  <si>
+    <t>New Tax Return Amount Due</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Personal Income Tax</t>
   </si>
   <si>
-    <t>Quarterly Estimated Tax</t>
-  </si>
-  <si>
-    <t>Extension Payment</t>
-  </si>
-  <si>
-    <t>New Tax Return Amount Due</t>
+    <t>Fri Sep 08 12:41:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:41:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:41:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 12:41:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Extension Payments</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:24:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:25:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:25:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 04 12:25:34 EDT 2023</t>
+    <t>Fri Sep 08 16:33:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:33:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:33:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 16:34:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:11:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:11:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:11:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 08 18:11:58 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -463,7 +490,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,10 +522,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -507,58 +534,58 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
   <si>
     <t>Result</t>
   </si>
@@ -114,6 +114,42 @@
   </si>
   <si>
     <t>Fri Sep 08 18:11:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:54:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:54:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:55:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Sat Sep 09 20:55:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:05:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:06:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:06:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 13:06:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:04:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:04:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:05:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Sep 11 14:05:13 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -525,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -542,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -559,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -576,7 +612,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
   <si>
     <t>Result</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>Mon Sep 11 14:05:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:28:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:29:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:29:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Sep 26 21:29:31 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -561,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -578,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -595,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -612,7 +624,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>Result</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>Tue Sep 26 21:29:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:37:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:38:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:38:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 11:38:29 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -573,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -590,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -607,7 +619,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -624,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="54">
   <si>
     <t>Result</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>Fri Sep 29 11:38:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:35:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:35:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:36:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:36:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:44:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:44:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:44:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 16:44:46 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -585,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -602,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -619,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -636,7 +660,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
   <si>
     <t>Result</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>Mon Oct 02 16:44:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:31:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:31:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:31:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:31:46 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -609,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -626,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -643,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -660,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
   <si>
     <t>Result</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>Fri Oct 06 11:31:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:47:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:47:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:47:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 22:48:10 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -621,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -638,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -655,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -672,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="66">
   <si>
     <t>Result</t>
   </si>
@@ -222,6 +222,18 @@
   </si>
   <si>
     <t>Mon Oct 09 22:48:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:53:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:53:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:53:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:53:48 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -633,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -650,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -667,7 +679,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -684,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5DA7EEE3-1B1B-4AB7-8BD6-5FA6C9A4C7A0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B743C713-F1F3-42C4-80C1-4C3E66BF1718}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="-120"/>
+    <workbookView windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="2460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Result</t>
   </si>
@@ -71,169 +71,34 @@
     <t>Personal Income Tax</t>
   </si>
   <si>
-    <t>Fri Sep 08 12:41:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 12:41:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 12:41:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 12:41:48 EDT 2023</t>
-  </si>
-  <si>
     <t>Extension Payments</t>
   </si>
   <si>
+    <t>Wed Nov 01 15:53:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:53:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:53:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Nov 01 15:53:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>DONOTRUN</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Fri Sep 08 16:33:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 16:33:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 16:33:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 16:34:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 18:11:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 18:11:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 18:11:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 08 18:11:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sat Sep 09 20:54:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sat Sep 09 20:54:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sat Sep 09 20:55:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Sat Sep 09 20:55:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 13:05:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 13:06:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 13:06:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 13:06:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 14:04:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 14:04:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 14:05:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Sep 11 14:05:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Sep 26 21:28:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Sep 26 21:29:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Sep 26 21:29:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Sep 26 21:29:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:37:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:38:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:38:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 11:38:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:35:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:35:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:36:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:36:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:44:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:44:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:44:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 16:44:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:31:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:31:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:31:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:31:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:47:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:47:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:47:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 22:48:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:53:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:53:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:53:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:53:48 EDT 2023</t>
+    <t>Thu Dec 07 21:43:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:43:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:43:23 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -610,14 +475,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
     <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -645,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -662,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -679,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -696,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Result</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>Thu Dec 07 21:43:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:57:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:57:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Dec 20 12:57:52 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -510,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -527,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -561,7 +570,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>Result</t>
   </si>
@@ -108,6 +108,24 @@
   </si>
   <si>
     <t>Wed Dec 20 12:57:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:06:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:06:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 13 23:06:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:33:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:33:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Jan 14 16:33:47 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -519,7 +537,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -536,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -570,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B743C713-F1F3-42C4-80C1-4C3E66BF1718}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB807603-9E54-4898-8143-4FD0C5952082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14565" windowWidth="18810" xWindow="3480" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="2460"/>
+    <workbookView xWindow="1680" yWindow="2580" windowWidth="24525" windowHeight="14010" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Result</t>
   </si>
@@ -74,65 +74,28 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:53:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Nov 01 15:53:25 EDT 2023</t>
-  </si>
-  <si>
     <t>Wed Nov 01 15:53:36 EDT 2023</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:53:48 EDT 2023</t>
-  </si>
-  <si>
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:43:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:43:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:43:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:57:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:57:40 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Dec 20 12:57:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:06:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:06:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 13 23:06:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:33:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:33:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Jan 14 16:33:47 EST 2024</t>
+    <t>Thu Jan 25 17:47:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:47:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:47:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Estate Tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,22 +138,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -207,10 +170,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -245,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -297,7 +260,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -408,21 +371,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -439,7 +402,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -491,28 +454,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -537,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -554,7 +517,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -571,10 +534,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -588,7 +551,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -600,8 +563,24 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB807603-9E54-4898-8143-4FD0C5952082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08616B5B-A865-4E28-966C-CC688535BABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2580" windowWidth="24525" windowHeight="14010" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}"/>
+    <workbookView xWindow="2220" yWindow="2325" windowWidth="24525" windowHeight="14010" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Result</t>
   </si>
@@ -80,16 +80,22 @@
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t>Thu Jan 25 17:47:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:47:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:47:43 EST 2024</t>
-  </si>
-  <si>
     <t>Estate Tax</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:27:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:27:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:27:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:27:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 19:28:10 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -517,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -551,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -564,19 +570,37 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08616B5B-A865-4E28-966C-CC688535BABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{08616B5B-A865-4E28-966C-CC688535BABC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2325" windowWidth="24525" windowHeight="14010" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="2325"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Result</t>
   </si>
@@ -96,12 +96,31 @@
   </si>
   <si>
     <t>Fri Feb 02 19:28:10 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:27:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:27:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:27:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:27:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 03 23:27:55 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,22 +163,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -176,10 +195,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -214,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -266,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -377,21 +396,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -408,7 +427,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -460,15 +479,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -476,12 +495,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -506,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -523,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -557,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -574,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -591,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -604,7 +623,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Result</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>Sat Feb 03 23:27:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:55:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:55:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:55:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:55:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Feb 17 22:55:55 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -525,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -542,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -576,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -593,7 +608,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -610,7 +625,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>Result</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>Sat Feb 17 22:55:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:12:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:13:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:14:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:14:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 01:15:15 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -540,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -557,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -591,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -608,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -625,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{08616B5B-A865-4E28-966C-CC688535BABC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B895557-6EF4-4291-BF04-0B6487782059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="2325"/>
+    <workbookView xWindow="30810" yWindow="990" windowWidth="24525" windowHeight="14010" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Result</t>
   </si>
@@ -77,58 +77,7 @@
     <t>Wed Nov 01 15:53:36 EDT 2023</t>
   </si>
   <si>
-    <t>DONOTRUN</t>
-  </si>
-  <si>
     <t>Estate Tax</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:27:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:27:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:27:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:27:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 19:28:10 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:27:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:27:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:27:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:27:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 03 23:27:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:55:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:55:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:55:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:55:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Feb 17 22:55:55 EST 2024</t>
   </si>
   <si>
     <t>Fri Mar 08 01:12:58 EST 2024</t>
@@ -150,7 +99,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,22 +141,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -225,10 +173,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -263,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -315,7 +263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -426,21 +374,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -457,7 +405,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -509,28 +457,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -572,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -592,7 +540,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -606,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -623,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -632,7 +580,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -640,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -649,11 +597,11 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B895557-6EF4-4291-BF04-0B6487782059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4BE0D9F9-0628-4DC8-9CA9-ACB55224303D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="990" windowWidth="24525" windowHeight="14010" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="615"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Result</t>
   </si>
@@ -93,12 +93,19 @@
   </si>
   <si>
     <t>Fri Mar 08 01:15:15 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:05:30 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,22 +148,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -173,10 +180,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -211,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -374,21 +381,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -405,7 +412,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -457,15 +464,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -473,12 +480,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -505,9 +512,6 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
@@ -522,9 +526,6 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
@@ -537,7 +538,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -556,9 +557,6 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
@@ -573,9 +571,6 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
@@ -590,9 +585,6 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -601,7 +593,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4BE0D9F9-0628-4DC8-9CA9-ACB55224303D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97515DDF-B3FB-4EDA-B685-CE4F11D83797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="615"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Result</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Existing Liability w/Notice Number</t>
-  </si>
-  <si>
     <t>Quarterly Estimated Tax</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Extension Payments</t>
   </si>
   <si>
-    <t>Wed Nov 01 15:53:36 EDT 2023</t>
-  </si>
-  <si>
     <t>Estate Tax</t>
   </si>
   <si>
@@ -95,17 +89,16 @@
     <t>Fri Mar 08 01:15:15 EST 2024</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Wed Mar 20 23:05:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Existing Liability with Notice/Invoice Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,22 +141,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,10 +173,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -218,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,7 +263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -381,21 +374,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -412,7 +405,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -464,28 +457,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -507,93 +500,108 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97515DDF-B3FB-4EDA-B685-CE4F11D83797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{97515DDF-B3FB-4EDA-B685-CE4F11D83797}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}"/>
+    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="1155"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Result</t>
   </si>
@@ -93,12 +93,34 @@
   </si>
   <si>
     <t>Existing Liability with Notice/Invoice Number</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:06:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:06:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:06:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:06:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:06:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:07:04 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,22 +163,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -173,10 +195,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -211,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -263,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -374,21 +396,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -405,7 +427,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -457,15 +479,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD07FC5C-AC6F-4AB3-AD84-15D080B4204C}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -473,12 +495,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -503,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -520,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -537,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -554,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -571,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -588,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -601,7 +623,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>Result</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>Mon Apr 08 18:07:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:05:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:05:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:06:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:06:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:06:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 00:06:37 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -525,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -542,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -559,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -576,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -593,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -610,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
   <si>
     <t>Result</t>
   </si>
@@ -132,6 +132,60 @@
   </si>
   <si>
     <t>Sun Oct 13 00:06:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:58:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:58:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:58:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:59:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:59:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 14:59:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:54:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:54:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:55:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:55:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:55:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:55:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:05:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:05:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:05:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:05:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:05:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:06:11 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -543,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -560,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -577,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -594,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -611,7 +665,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -628,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{97515DDF-B3FB-4EDA-B685-CE4F11D83797}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C6B718A5-AB13-42FE-9174-7C012D2F1955}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="14010" windowWidth="24525" xWindow="1965" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="1155"/>
+    <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Result</t>
   </si>
@@ -74,118 +74,46 @@
     <t>Estate Tax</t>
   </si>
   <si>
-    <t>Fri Mar 08 01:12:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:13:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:14:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:14:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 01:15:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:05:30 EDT 2024</t>
-  </si>
-  <si>
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
+    <t>Thu Nov 07 16:44:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:44:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:45:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:45:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:45:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 16:45:42 EST 2024</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Mon Apr 08 18:06:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:06:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:06:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:06:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:06:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:07:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:05:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:05:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:06:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:06:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:06:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 00:06:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:58:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:58:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:58:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:59:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:59:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 14:59:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:54:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:54:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:55:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:55:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:55:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:55:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:05:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:05:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:05:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:05:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:05:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:06:11 EDT 2024</t>
+    <t>Thu Nov 07 18:01:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:01:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:01:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 18:02:06 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -263,9 +191,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
@@ -303,7 +231,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
@@ -409,7 +337,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -551,7 +479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,7 +490,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,13 +525,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -614,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -631,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -648,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -662,16 +590,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -679,13 +607,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Result</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>Thu Nov 07 18:02:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:03:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:04:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:04:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:04:31 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -525,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -542,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -559,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -576,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C6B718A5-AB13-42FE-9174-7C012D2F1955}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DC5E4108-7160-4048-B526-AD1D34BBB193}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="-120"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Result</t>
   </si>
@@ -77,18 +77,6 @@
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
-    <t>Thu Nov 07 16:44:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:44:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:45:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:45:14 EST 2024</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -98,34 +86,37 @@
     <t>Thu Nov 07 16:45:42 EST 2024</t>
   </si>
   <si>
-    <t>DoNotRun</t>
+    <t>Tue Nov 12 18:03:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:04:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:04:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 18:04:31 EST 2024</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Thu Nov 07 18:01:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:01:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:01:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 18:02:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:03:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:04:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:04:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:04:31 EST 2024</t>
+    <t>Tue Jan 28 22:09:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:09:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:10:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:10:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:10:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:10:43 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -502,7 +493,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -554,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -571,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -588,7 +579,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -602,13 +593,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -619,13 +610,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
   <si>
     <t>Result</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>Tue Jan 28 22:10:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:20:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:21:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:21:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:21:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:21:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 20:21:54 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -528,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -545,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -562,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -579,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -596,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -613,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
   <si>
     <t>Result</t>
   </si>
@@ -135,6 +135,24 @@
   </si>
   <si>
     <t>Tue Feb 11 20:21:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:04:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:05:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:05:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:05:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:05:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:05:57 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -546,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -563,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -580,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -597,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -614,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
@@ -631,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>

--- a/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
+++ b/KatalonData/RADTestData/SSNmoreThan9Error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DC5E4108-7160-4048-B526-AD1D34BBB193}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C3E8922E-33C0-439B-80E3-2955E82885E1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="-120"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{79741C21-893F-4AEC-BE20-437F7B9E7AD0}" yWindow="-3945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Result</t>
   </si>
@@ -77,82 +77,40 @@
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:45:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 16:45:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:03:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:04:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:04:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 18:04:31 EST 2024</t>
+    <t>Mon Feb 24 23:04:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:05:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:05:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:05:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:05:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 23:05:57 EST 2025</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Tue Jan 28 22:09:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:09:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:10:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:10:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:10:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:10:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:20:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:21:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:21:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:21:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:21:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 20:21:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:04:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:05:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:05:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:05:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:05:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 23:05:57 EST 2025</t>
+    <t>Sat Oct 04 16:19:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:20:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:20:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sat Oct 04 16:20:22 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -529,20 +487,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="34.453125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,12 +517,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -576,12 +534,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -593,12 +551,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -610,12 +568,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -627,15 +585,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -644,15 +602,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
